--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\متون\New folder\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6256B90A-783E-49D0-A0C4-0746AD5145F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE5614B-ECE4-46DA-A050-D3EB0E7867BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8150BC26-0E28-4E7C-9180-7347C6A0A91C}"/>
   </bookViews>

--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\متون\New folder\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7156C694-5049-4314-AE5C-722AD23749CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBF5DC6-7568-44A3-94F3-ABA8791F732D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8150BC26-0E28-4E7C-9180-7347C6A0A91C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>رمز ورود</t>
   </si>
@@ -174,10 +174,7 @@
     <t>taj</t>
   </si>
   <si>
-    <t>poy</t>
-  </si>
-  <si>
-    <t>arm</t>
+    <t>ali</t>
   </si>
 </sst>
 </file>
@@ -531,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6835C426-B13E-4B1C-B639-216C7D32220E}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScale="140" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" zoomScale="140" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,7 +556,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -570,7 +567,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>123</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -581,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>123</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -592,7 +589,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>123</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -603,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>123</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -614,7 +611,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>123</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -625,7 +622,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>123</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -636,7 +633,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>123</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -647,7 +644,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>123</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -658,7 +655,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>123</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -669,7 +666,7 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>123</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -680,7 +677,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -691,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -702,7 +699,7 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>123</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -713,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>123</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -724,7 +721,7 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -735,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>123</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -746,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>123</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -757,7 +754,7 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>123</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -768,7 +765,7 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>123</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -778,8 +775,8 @@
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C22">
-        <v>123</v>
+      <c r="C22" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -790,7 +787,7 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>123</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -801,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -812,7 +809,7 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>123</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -823,7 +820,7 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>123</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -834,7 +831,7 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>123</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -845,7 +842,7 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>123</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -856,7 +853,7 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>123</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -867,7 +864,7 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>123</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -878,7 +875,7 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>123</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -888,6 +885,9 @@
       <c r="B32" t="s">
         <v>3</v>
       </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -896,8 +896,8 @@
       <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="C33" t="s">
-        <v>47</v>
+      <c r="C33">
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -907,8 +907,8 @@
       <c r="B34" t="s">
         <v>3</v>
       </c>
-      <c r="C34" t="s">
-        <v>46</v>
+      <c r="C34">
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">

--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\متون\New folder\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBF5DC6-7568-44A3-94F3-ABA8791F732D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D15A77-F815-417A-AD57-76B7440448FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8150BC26-0E28-4E7C-9180-7347C6A0A91C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>رمز ورود</t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>ali</t>
+  </si>
+  <si>
+    <t>سارا اکبری</t>
+  </si>
+  <si>
+    <t>sara</t>
+  </si>
+  <si>
+    <t>پرهام یزدانی</t>
+  </si>
+  <si>
+    <t>parham</t>
   </si>
 </sst>
 </file>
@@ -526,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6835C426-B13E-4B1C-B639-216C7D32220E}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" zoomScale="140" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A23" zoomScale="140" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -944,6 +956,28 @@
         <v>44</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\متون\New folder\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D15A77-F815-417A-AD57-76B7440448FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E79C59-1710-4BC9-89FE-A2FD49B7B611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8150BC26-0E28-4E7C-9180-7347C6A0A91C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="61">
   <si>
     <t>رمز ورود</t>
   </si>
@@ -187,6 +187,36 @@
   </si>
   <si>
     <t>parham</t>
+  </si>
+  <si>
+    <t>آموزگار مربوطه</t>
+  </si>
+  <si>
+    <t>مدرسه</t>
+  </si>
+  <si>
+    <t>شهید داود آبادی</t>
+  </si>
+  <si>
+    <t>مریم اکبری</t>
+  </si>
+  <si>
+    <t>maryam</t>
+  </si>
+  <si>
+    <t>سعدی</t>
+  </si>
+  <si>
+    <t>سمانه زارعی</t>
+  </si>
+  <si>
+    <t>samane</t>
+  </si>
+  <si>
+    <t>زهرا سمیعی</t>
+  </si>
+  <si>
+    <t>zahra</t>
   </si>
 </sst>
 </file>
@@ -538,18 +568,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6835C426-B13E-4B1C-B639-216C7D32220E}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A23" zoomScale="140" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A18" zoomScale="101" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -559,8 +591,14 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -570,8 +608,14 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -581,8 +625,14 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -592,8 +642,14 @@
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -603,8 +659,14 @@
       <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -614,8 +676,14 @@
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -625,8 +693,14 @@
       <c r="C7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -636,8 +710,14 @@
       <c r="C8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -647,8 +727,14 @@
       <c r="C9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -658,8 +744,14 @@
       <c r="C10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -669,8 +761,14 @@
       <c r="C11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -680,8 +778,14 @@
       <c r="C12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -691,8 +795,14 @@
       <c r="C13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -702,8 +812,14 @@
       <c r="C14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -713,8 +829,14 @@
       <c r="C15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -724,8 +846,14 @@
       <c r="C16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -735,8 +863,14 @@
       <c r="C17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -746,8 +880,14 @@
       <c r="C18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -757,8 +897,14 @@
       <c r="C19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -768,8 +914,14 @@
       <c r="C20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -779,8 +931,14 @@
       <c r="C21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -790,8 +948,14 @@
       <c r="C22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -801,8 +965,14 @@
       <c r="C23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -812,8 +982,14 @@
       <c r="C24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -823,8 +999,14 @@
       <c r="C25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -834,8 +1016,14 @@
       <c r="C26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -845,8 +1033,14 @@
       <c r="C27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -856,8 +1050,14 @@
       <c r="C28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -867,8 +1067,14 @@
       <c r="C29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -878,8 +1084,14 @@
       <c r="C30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -889,8 +1101,14 @@
       <c r="C31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -900,8 +1118,14 @@
       <c r="C32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -911,8 +1135,14 @@
       <c r="C33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -922,8 +1152,14 @@
       <c r="C34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -933,8 +1169,11 @@
       <c r="C35" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -944,8 +1183,11 @@
       <c r="C36" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -955,8 +1197,11 @@
       <c r="C37" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -966,8 +1211,11 @@
       <c r="C38" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -976,6 +1224,54 @@
       </c>
       <c r="C39" t="s">
         <v>50</v>
+      </c>
+      <c r="E39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\متون\New folder\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E79C59-1710-4BC9-89FE-A2FD49B7B611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF044604-348A-4B06-ACFB-48ED4EDD345A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8150BC26-0E28-4E7C-9180-7347C6A0A91C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="61">
   <si>
     <t>رمز ورود</t>
   </si>
@@ -571,7 +571,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A18" zoomScale="101" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1225,6 +1225,9 @@
       <c r="C39" t="s">
         <v>50</v>
       </c>
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
       <c r="E39" t="s">
         <v>53</v>
       </c>
